--- a/src/PatioBlox.DataExport/Templates/Template_PatchReport.xlsx
+++ b/src/PatioBlox.DataExport/Templates/Template_PatchReport.xlsx
@@ -11,7 +11,7 @@
     <sheet name="&lt;#Config&gt;" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Patches__">Sheet1!$A$2:$C$2</definedName>
+    <definedName name="__Items__">Sheet1!$A$2:$C$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -87,13 +87,13 @@
     <t>Total Pages</t>
   </si>
   <si>
-    <t>&lt;#Patches.Name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Patches.PageCount&gt;</t>
-  </si>
-  <si>
-    <t>&lt;#Patches.StoreCount&gt;</t>
+    <t>&lt;#Items.Name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.PageCount&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Items.StoreCount&gt;</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/PatioBlox.DataExport/Templates/Template_PatchReport.xlsx
+++ b/src/PatioBlox.DataExport/Templates/Template_PatchReport.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15390" windowHeight="10980"/>
+    <workbookView xWindow="4905" yWindow="3885" windowWidth="15225" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__Items__">Sheet1!$A$2:$C$2</definedName>
+    <definedName name="__Items__X">Sheet1!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -75,15 +75,6 @@
     <t>Patch Name</t>
   </si>
   <si>
-    <t>Page Count</t>
-  </si>
-  <si>
-    <t>Copy Count</t>
-  </si>
-  <si>
-    <t>Store Count</t>
-  </si>
-  <si>
     <t>Total Pages</t>
   </si>
   <si>
@@ -94,6 +85,36 @@
   </si>
   <si>
     <t>&lt;#Items.StoreCount&gt;</t>
+  </si>
+  <si>
+    <t>Pages Per Set</t>
+  </si>
+  <si>
+    <t>Sheets Per Set</t>
+  </si>
+  <si>
+    <t>Stores In Patch</t>
+  </si>
+  <si>
+    <t>Copies Per Store</t>
+  </si>
+  <si>
+    <t>Pages Per Patch</t>
+  </si>
+  <si>
+    <t>Sets Per Patch</t>
+  </si>
+  <si>
+    <t>Total Sets</t>
+  </si>
+  <si>
+    <t>Total Stores</t>
+  </si>
+  <si>
+    <t>Total Sheets</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -103,7 +124,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +149,14 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -232,7 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -247,6 +276,15 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,61 +587,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="e">
+        <f>B2/2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2" t="e">
+        <f>B2*D2*E2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>D2*E2</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13">
+        <f>SUM(B2:B3)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="e">
+        <f>SUM(C2:C3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D4" s="13">
+        <f>SUM(D2:D3)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="e">
+        <f>SUM(F2:F3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G4" s="13" t="e">
+        <f>SUM(G2:G3)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="e">
-        <f>B2*C2*D2</f>
-        <v>#VALUE!</v>
+      <c r="C5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
